--- a/foodChoiceTrials.xlsx
+++ b/foodChoiceTrials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\Documents\Research\Sinai-K-Proj\mine-task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\Documents\Research\Sinai-K-Proj\experiments\pilot-food-prolific\food-task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A4EBF88-BA4A-4963-9D07-E33D68DECBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F725DA8E-8348-4671-91FD-D2C9A16EAF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="528" windowWidth="22020" windowHeight="13872" xr2:uid="{B899DB25-00AB-4609-A19E-758D632C95BA}"/>
+    <workbookView xWindow="2196" yWindow="0" windowWidth="19638" windowHeight="13680" xr2:uid="{B899DB25-00AB-4609-A19E-758D632C95BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="7">
   <si>
-    <t>whichItem</t>
+    <t>TrialN</t>
   </si>
   <si>
-    <t>HV1</t>
+    <t>ovN</t>
   </si>
   <si>
-    <t>HV2</t>
+    <t>OV</t>
   </si>
   <si>
-    <t>HV3</t>
+    <t>MV</t>
   </si>
   <si>
-    <t>MV1</t>
+    <t>HV</t>
   </si>
   <si>
-    <t>MV2</t>
+    <t>Rand</t>
   </si>
   <si>
-    <t>MV3</t>
-  </si>
-  <si>
-    <t>LV1</t>
-  </si>
-  <si>
-    <t>LV2</t>
-  </si>
-  <si>
-    <t>LV3</t>
+    <t>LV</t>
   </si>
 </sst>
 </file>
@@ -121,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -161,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -417,65 +408,2102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D56B52C-416B-4854-8356-33796315FEE7}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RAND()</f>
+        <v>8.5258804939624344E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>132</v>
+      </c>
+      <c r="D3">
+        <f ca="1">RAND()</f>
+        <v>0.72054858785473286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f ca="1">RAND()</f>
+        <v>0.90184884768490525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <f ca="1">RAND()</f>
+        <v>0.19931107943907955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>99</v>
+      </c>
+      <c r="D6">
+        <f ca="1">RAND()</f>
+        <v>0.1096954841602038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>92</v>
+      </c>
+      <c r="D7">
+        <f ca="1">RAND()</f>
+        <v>0.40538395913309277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C8">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <f ca="1">RAND()</f>
+        <v>0.66633488669090157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <f ca="1">RAND()</f>
+        <v>0.91968149355484918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <f ca="1">RAND()</f>
+        <v>0.47488959440936318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <f ca="1">RAND()</f>
+        <v>0.66075082230592308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <f ca="1">RAND()</f>
+        <v>0.94681795235185673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>126</v>
+      </c>
+      <c r="D13">
+        <f ca="1">RAND()</f>
+        <v>0.72809071203505804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <f ca="1">RAND()</f>
+        <v>8.2222184006075616E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <f ca="1">RAND()</f>
+        <v>0.74380988062081765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f ca="1">RAND()</f>
+        <v>0.55927061548846257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>138</v>
+      </c>
+      <c r="D17">
+        <f ca="1">RAND()</f>
+        <v>0.34701372569355826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f ca="1">RAND()</f>
+        <v>0.44627697906209363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <f ca="1">RAND()</f>
+        <v>0.56085953389407339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <f ca="1">RAND()</f>
+        <v>0.33249705498234772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <f ca="1">RAND()</f>
+        <v>0.12768501385584052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <f ca="1">RAND()</f>
+        <v>0.13719114279000333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <f ca="1">RAND()</f>
+        <v>0.79764858564792118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <f ca="1">RAND()</f>
+        <v>0.38918532472525869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f ca="1">RAND()</f>
+        <v>0.89561430817725363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <f ca="1">RAND()</f>
+        <v>9.8746769067630691E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <f ca="1">RAND()</f>
+        <v>0.29279466362316364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <f ca="1">RAND()</f>
+        <v>0.11213296224250568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <f ca="1">RAND()</f>
+        <v>0.57139551231972607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <f ca="1">RAND()</f>
+        <v>0.66066454921284845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <f ca="1">RAND()</f>
+        <v>0.85539438713762161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <f ca="1">RAND()</f>
+        <v>6.2393885864373111E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>111</v>
+      </c>
+      <c r="D33">
+        <f ca="1">RAND()</f>
+        <v>0.37967726554389392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <f ca="1">RAND()</f>
+        <v>0.40325508292845513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>43</v>
+      </c>
+      <c r="D35">
+        <f ca="1">RAND()</f>
+        <v>0.59834771372209983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>129</v>
+      </c>
+      <c r="D36">
+        <f ca="1">RAND()</f>
+        <v>0.86338749025234951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f ca="1">RAND()</f>
+        <v>0.35227153215601636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <f ca="1">RAND()</f>
+        <v>0.15211119604405898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <f ca="1">RAND()</f>
+        <v>0.44177925627349823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <f ca="1">RAND()</f>
+        <v>0.31732583641561962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>87</v>
+      </c>
+      <c r="D41">
+        <f ca="1">RAND()</f>
+        <v>0.31838912634843064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <f ca="1">RAND()</f>
+        <v>3.1789385357184341E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <f ca="1">RAND()</f>
+        <v>0.22052218296868187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <f ca="1">RAND()</f>
+        <v>3.5551233533442472E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f ca="1">RAND()</f>
+        <v>0.46531221429392766</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f ca="1">RAND()</f>
+        <v>0.12804837893692733</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <f ca="1">RAND()</f>
+        <v>4.0482177895151628E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <f ca="1">RAND()</f>
+        <v>0.33334487856375716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <f ca="1">RAND()</f>
+        <v>7.3141789262547996E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <f ca="1">RAND()</f>
+        <v>0.19465191899537204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <f ca="1">RAND()</f>
+        <v>0.83474523722480121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>110</v>
+      </c>
+      <c r="D52">
+        <f ca="1">RAND()</f>
+        <v>5.6710947989383365E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <f ca="1">RAND()</f>
+        <v>0.45219783470720798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <f ca="1">RAND()</f>
+        <v>0.56479008641920814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>101</v>
+      </c>
+      <c r="D55">
+        <f ca="1">RAND()</f>
+        <v>0.96945234085677245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>112</v>
+      </c>
+      <c r="D56">
+        <f ca="1">RAND()</f>
+        <v>0.64488926866854734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>62</v>
+      </c>
+      <c r="D57">
+        <f ca="1">RAND()</f>
+        <v>0.37555620481105823</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <f ca="1">RAND()</f>
+        <v>0.6419148561794118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <f ca="1">RAND()</f>
+        <v>0.78847151537914428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>89</v>
+      </c>
+      <c r="D60">
+        <f ca="1">RAND()</f>
+        <v>2.8920942675898953E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>118</v>
+      </c>
+      <c r="D61">
+        <f ca="1">RAND()</f>
+        <v>0.1524053473265975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62">
+        <f ca="1">RAND()</f>
+        <v>0.25828894256337709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>119</v>
+      </c>
+      <c r="D63">
+        <f ca="1">RAND()</f>
+        <v>0.99967128875925404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>42</v>
+      </c>
+      <c r="C64">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <f ca="1">RAND()</f>
+        <v>0.31144960133218047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>94</v>
+      </c>
+      <c r="D65">
+        <f ca="1">RAND()</f>
+        <v>0.94078355704303585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>134</v>
+      </c>
+      <c r="D66">
+        <f ca="1">RAND()</f>
+        <v>0.71405619397643716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>123</v>
+      </c>
+      <c r="D67">
+        <f ca="1">RAND()</f>
+        <v>0.83645961211496977</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <f ca="1">RAND()</f>
+        <v>0.2137443082153262</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+      <c r="C69">
+        <v>79</v>
+      </c>
+      <c r="D69">
+        <f ca="1">RAND()</f>
+        <v>0.9770044285155487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>32</v>
+      </c>
+      <c r="C70">
+        <v>124</v>
+      </c>
+      <c r="D70">
+        <f ca="1">RAND()</f>
+        <v>0.93289072730082656</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>93</v>
+      </c>
+      <c r="D71">
+        <f ca="1">RAND()</f>
+        <v>4.6778903886440792E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>34</v>
+      </c>
+      <c r="C72">
+        <v>34</v>
+      </c>
+      <c r="D72">
+        <f ca="1">RAND()</f>
+        <v>8.6555384784017364E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>86</v>
+      </c>
+      <c r="D73">
+        <f ca="1">RAND()</f>
+        <v>0.18630950019415848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <f ca="1">RAND()</f>
+        <v>0.10532423365529386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>43</v>
+      </c>
+      <c r="C75">
+        <v>135</v>
+      </c>
+      <c r="D75">
+        <f ca="1">RAND()</f>
+        <v>4.4211353367169859E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>97</v>
+      </c>
+      <c r="D76">
+        <f ca="1">RAND()</f>
+        <v>0.49545029781828787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <f ca="1">RAND()</f>
+        <v>0.95487180037816433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>41</v>
+      </c>
+      <c r="C78">
+        <v>133</v>
+      </c>
+      <c r="D78">
+        <f ca="1">RAND()</f>
+        <v>8.0055745564038161E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>39</v>
+      </c>
+      <c r="C79">
+        <v>131</v>
+      </c>
+      <c r="D79">
+        <f ca="1">RAND()</f>
+        <v>0.55846532772201118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>45</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <f ca="1">RAND()</f>
+        <v>0.11962969803636747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>116</v>
+      </c>
+      <c r="D81">
+        <f ca="1">RAND()</f>
+        <v>0.63268527326563495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <f ca="1">RAND()</f>
+        <v>0.11328895433850172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <f ca="1">RAND()</f>
+        <v>0.8697734216158729</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <f ca="1">RAND()</f>
+        <v>0.90428948916618479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>52</v>
+      </c>
+      <c r="D85">
+        <f ca="1">RAND()</f>
+        <v>0.48951948118669009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <f ca="1">RAND()</f>
+        <v>0.4382647699481389</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <f ca="1">RAND()</f>
+        <v>0.94042470892187668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>41</v>
+      </c>
+      <c r="C88">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <f ca="1">RAND()</f>
+        <v>0.10351632323991811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>122</v>
+      </c>
+      <c r="D89">
+        <f ca="1">RAND()</f>
+        <v>0.29228725588442905</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
+      <c r="C90">
+        <v>15</v>
+      </c>
+      <c r="D90">
+        <f ca="1">RAND()</f>
+        <v>0.77576259111718271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>19</v>
+      </c>
+      <c r="C91">
+        <v>65</v>
+      </c>
+      <c r="D91">
+        <f ca="1">RAND()</f>
+        <v>0.39978076763931514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <f ca="1">RAND()</f>
+        <v>0.37735055989263011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <f ca="1">RAND()</f>
+        <v>0.85726390771764316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <f ca="1">RAND()</f>
+        <v>0.53242363944073112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95">
+        <v>46</v>
+      </c>
+      <c r="C95">
+        <v>46</v>
+      </c>
+      <c r="D95">
+        <f ca="1">RAND()</f>
+        <v>0.66204714958593136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <f ca="1">RAND()</f>
+        <v>0.6515067329856159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97">
+        <v>37</v>
+      </c>
+      <c r="C97">
+        <v>37</v>
+      </c>
+      <c r="D97">
+        <f ca="1">RAND()</f>
+        <v>0.54548705753328108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>66</v>
+      </c>
+      <c r="D98">
+        <f ca="1">RAND()</f>
+        <v>0.47115207696463257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99">
+        <v>31</v>
+      </c>
+      <c r="C99">
+        <v>31</v>
+      </c>
+      <c r="D99">
+        <f ca="1">RAND()</f>
+        <v>0.72954233771483368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <f ca="1">RAND()</f>
+        <v>0.80071119445402938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>78</v>
+      </c>
+      <c r="D101">
+        <f ca="1">RAND()</f>
+        <v>0.5726208060765916</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>44</v>
+      </c>
+      <c r="C102">
+        <v>44</v>
+      </c>
+      <c r="D102">
+        <f ca="1">RAND()</f>
+        <v>0.27659225593456105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>33</v>
+      </c>
+      <c r="C103">
+        <v>125</v>
+      </c>
+      <c r="D103">
+        <f ca="1">RAND()</f>
+        <v>0.97607605187123092</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>31</v>
+      </c>
+      <c r="C104">
+        <v>77</v>
+      </c>
+      <c r="D104">
+        <f ca="1">RAND()</f>
+        <v>0.12874802981070854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>44</v>
+      </c>
+      <c r="C105">
+        <v>90</v>
+      </c>
+      <c r="D105">
+        <f ca="1">RAND()</f>
+        <v>0.16244406526960875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>23</v>
+      </c>
+      <c r="C106">
+        <v>115</v>
+      </c>
+      <c r="D106">
+        <f ca="1">RAND()</f>
+        <v>0.88344294198432882</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>71</v>
+      </c>
+      <c r="D107">
+        <f ca="1">RAND()</f>
+        <v>0.67363702461733865</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <f ca="1">RAND()</f>
+        <v>0.21892757794329953</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>39</v>
+      </c>
+      <c r="C109">
+        <v>85</v>
+      </c>
+      <c r="D109">
+        <f ca="1">RAND()</f>
+        <v>0.56175315926385949</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110">
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
+        <f ca="1">RAND()</f>
+        <v>0.75274103064056685</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>21</v>
+      </c>
+      <c r="C111">
+        <v>113</v>
+      </c>
+      <c r="D111">
+        <f ca="1">RAND()</f>
+        <v>0.90009148284490081</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <f ca="1">RAND()</f>
+        <v>0.76933633890848052</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>35</v>
+      </c>
+      <c r="C113">
+        <v>127</v>
+      </c>
+      <c r="D113">
+        <f ca="1">RAND()</f>
+        <v>0.6063172973407962</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>117</v>
+      </c>
+      <c r="D114">
+        <f ca="1">RAND()</f>
+        <v>0.58490779946457283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>48</v>
+      </c>
+      <c r="D115">
+        <f ca="1">RAND()</f>
+        <v>0.64663325089299073</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <f ca="1">RAND()</f>
+        <v>0.36818370423430324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>108</v>
+      </c>
+      <c r="D117">
+        <f ca="1">RAND()</f>
+        <v>0.5311121679497478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>104</v>
+      </c>
+      <c r="D118">
+        <f ca="1">RAND()</f>
+        <v>0.49751434486773316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>106</v>
+      </c>
+      <c r="D119">
+        <f ca="1">RAND()</f>
+        <v>0.40184982493689259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120">
+        <v>38</v>
+      </c>
+      <c r="C120">
+        <v>130</v>
+      </c>
+      <c r="D120">
+        <f ca="1">RAND()</f>
+        <v>0.60418431444997778</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>96</v>
+      </c>
+      <c r="D121">
+        <f ca="1">RAND()</f>
+        <v>0.59027356800263153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>53</v>
+      </c>
+      <c r="D122">
+        <f ca="1">RAND()</f>
+        <v>0.5930664184799288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>103</v>
+      </c>
+      <c r="D123">
+        <f ca="1">RAND()</f>
+        <v>0.25981558302114238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="C124">
+        <v>61</v>
+      </c>
+      <c r="D124">
+        <f ca="1">RAND()</f>
+        <v>0.80598952182993588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <f ca="1">RAND()</f>
+        <v>0.12236209901324313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>102</v>
+      </c>
+      <c r="D126">
+        <f ca="1">RAND()</f>
+        <v>8.2511261243842005E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <f ca="1">RAND()</f>
+        <v>0.77149847730879961</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>27</v>
+      </c>
+      <c r="C128">
+        <v>73</v>
+      </c>
+      <c r="D128">
+        <f ca="1">RAND()</f>
+        <v>0.29222616158182846</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>25</v>
+      </c>
+      <c r="D129">
+        <f ca="1">RAND()</f>
+        <v>0.55744984298900446</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130">
+        <v>21</v>
+      </c>
+      <c r="C130">
+        <v>67</v>
+      </c>
+      <c r="D130">
+        <f ca="1">RAND()</f>
+        <v>0.51907586149793938</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131">
+        <v>36</v>
+      </c>
+      <c r="C131">
+        <v>82</v>
+      </c>
+      <c r="D131">
+        <f ca="1">RAND()</f>
+        <v>0.55725317580878619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <f ca="1">RAND()</f>
+        <v>0.61013150663016547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>60</v>
+      </c>
+      <c r="D133">
+        <f ca="1">RAND()</f>
+        <v>0.40446268908079841</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <f ca="1">RAND()</f>
+        <v>0.64672460898363926</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135">
+        <v>136</v>
+      </c>
+      <c r="D135">
+        <f ca="1">RAND()</f>
+        <v>0.43712260581666107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>98</v>
+      </c>
+      <c r="D136">
+        <f ca="1">RAND()</f>
+        <v>0.88382283157535846</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137">
+        <v>26</v>
+      </c>
+      <c r="C137">
+        <v>72</v>
+      </c>
+      <c r="D137">
+        <f ca="1">RAND()</f>
+        <v>0.97098998487215327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>50</v>
+      </c>
+      <c r="D138">
+        <f ca="1">RAND()</f>
+        <v>5.9513952108950163E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>39</v>
+      </c>
+      <c r="C139">
+        <v>39</v>
+      </c>
+      <c r="D139">
+        <f ca="1">RAND()</f>
+        <v>0.26552073457971481</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D139">
+    <sortCondition descending="1" ref="D1:D139"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>